--- a/medicine/Mort/Cimetière_du_Mont-Gargan/Cimetière_du_Mont-Gargan.xlsx
+++ b/medicine/Mort/Cimetière_du_Mont-Gargan/Cimetière_du_Mont-Gargan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_du_Mont-Gargan</t>
+          <t>Cimetière_du_Mont-Gargan</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière du Mont-Gargan est un cimetière de la ville de Rouen, situé sur la côte Sainte-Catherine. 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_du_Mont-Gargan</t>
+          <t>Cimetière_du_Mont-Gargan</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce cimetière a été créé en 1780, d'une superficie de 3,30 ha, en remplacement de l'aître Saint-Maclou.
 À l'origine destiné aux paroisses Saint-Paul et Saint-Maclou, une partie est réservée peu avant 1870 à l'usage de l'Hospice général. Il sera agrandi à plusieurs reprises : en 1868, puis en 1896, puis à nouveau en 1892 .
-Le 23 prairial an XII (12 juin 1804)[1], les israélites obtiennent un emplacement dans le cimetière pour leurs inhumations.
+Le 23 prairial an XII (12 juin 1804), les israélites obtiennent un emplacement dans le cimetière pour leurs inhumations.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_du_Mont-Gargan</t>
+          <t>Cimetière_du_Mont-Gargan</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Personnalités enterrées</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Pierre Jean Baptiste Grésil (1758-1846), curé de Saint-Maclou, chanoine honoraire de Rouen et chevalier de la Légion d'honneur (1836)[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Pierre Jean Baptiste Grésil (1758-1846), curé de Saint-Maclou, chanoine honoraire de Rouen et chevalier de la Légion d'honneur (1836).
 Léonard Bordes (1898-1969), artiste peintre et musicien.
 Maurice Morisset (1908-1996), écrivain, poète et chroniqueur à Paris-Normandie.</t>
         </is>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_du_Mont-Gargan</t>
+          <t>Cimetière_du_Mont-Gargan</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,6 +593,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
